--- a/data/Subset1_WithDialogActs/Video Mosaic 11th grade pizza.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic 11th grade pizza.xlsx_with_dialog_acts.xlsx
@@ -1591,12 +1591,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1667,12 +1667,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2207,12 +2207,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2855,12 +2855,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2891,12 +2891,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2927,12 +2927,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3791,12 +3791,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4119,12 +4119,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4407,12 +4407,12 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
